--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3101.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3101.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.900339343771648</v>
+        <v>1.240041375160217</v>
       </c>
       <c r="B1">
-        <v>2.378606195766421</v>
+        <v>2.345365762710571</v>
       </c>
       <c r="C1">
-        <v>2.579359049794926</v>
+        <v>3.655198574066162</v>
       </c>
       <c r="D1">
-        <v>3.139055440108228</v>
+        <v>3.490769386291504</v>
       </c>
       <c r="E1">
-        <v>3.301039930462351</v>
+        <v>1.143975257873535</v>
       </c>
     </row>
   </sheetData>
